--- a/www/IndicatorsPerCountry/Tunisia_GDPperCapita_TerritorialRef_1956_2012_CCode_788.xlsx
+++ b/www/IndicatorsPerCountry/Tunisia_GDPperCapita_TerritorialRef_1956_2012_CCode_788.xlsx
@@ -258,13 +258,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Tunisia_GDPperCapita_TerritorialRef_1956_2012_CCode_788.xlsx
+++ b/www/IndicatorsPerCountry/Tunisia_GDPperCapita_TerritorialRef_1956_2012_CCode_788.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="90">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,199 +36,217 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>430</t>
+    <t>685</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>633</t>
-  </si>
-  <si>
-    <t>883</t>
-  </si>
-  <si>
-    <t>1115</t>
-  </si>
-  <si>
-    <t>1106</t>
-  </si>
-  <si>
-    <t>1220</t>
-  </si>
-  <si>
-    <t>1244</t>
-  </si>
-  <si>
-    <t>1249</t>
-  </si>
-  <si>
-    <t>1164</t>
-  </si>
-  <si>
-    <t>1223</t>
-  </si>
-  <si>
-    <t>1159</t>
-  </si>
-  <si>
-    <t>1291</t>
-  </si>
-  <si>
-    <t>1217</t>
-  </si>
-  <si>
-    <t>1343</t>
-  </si>
-  <si>
-    <t>1436</t>
-  </si>
-  <si>
-    <t>1379</t>
-  </si>
-  <si>
-    <t>1556</t>
-  </si>
-  <si>
-    <t>1589</t>
-  </si>
-  <si>
-    <t>1653</t>
-  </si>
-  <si>
-    <t>1654</t>
-  </si>
-  <si>
-    <t>1605</t>
-  </si>
-  <si>
-    <t>1735</t>
-  </si>
-  <si>
-    <t>1760</t>
-  </si>
-  <si>
-    <t>1827</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>2287</t>
-  </si>
-  <si>
-    <t>2221</t>
-  </si>
-  <si>
-    <t>2343</t>
-  </si>
-  <si>
-    <t>2446</t>
-  </si>
-  <si>
-    <t>2569</t>
-  </si>
-  <si>
-    <t>2592</t>
-  </si>
-  <si>
-    <t>2700</t>
-  </si>
-  <si>
-    <t>2811</t>
-  </si>
-  <si>
-    <t>2944</t>
-  </si>
-  <si>
-    <t>3030</t>
-  </si>
-  <si>
-    <t>2957</t>
-  </si>
-  <si>
-    <t>3039</t>
-  </si>
-  <si>
-    <t>3068</t>
-  </si>
-  <si>
-    <t>3161</t>
-  </si>
-  <si>
-    <t>3037</t>
-  </si>
-  <si>
-    <t>3164</t>
-  </si>
-  <si>
-    <t>3099</t>
-  </si>
-  <si>
-    <t>3151</t>
-  </si>
-  <si>
-    <t>3335.3996646</t>
-  </si>
-  <si>
-    <t>3401.75562545</t>
-  </si>
-  <si>
-    <t>3601.24926191</t>
-  </si>
-  <si>
-    <t>3615.71367444</t>
-  </si>
-  <si>
-    <t>3669.12168386</t>
-  </si>
-  <si>
-    <t>3698.64293128</t>
-  </si>
-  <si>
-    <t>3907.83614728</t>
-  </si>
-  <si>
-    <t>4066.46400532</t>
-  </si>
-  <si>
-    <t>4217.40914653</t>
-  </si>
-  <si>
-    <t>4422.18836459</t>
-  </si>
-  <si>
-    <t>4563.55452021</t>
-  </si>
-  <si>
-    <t>4734.23095925</t>
-  </si>
-  <si>
-    <t>4764.78108482</t>
-  </si>
-  <si>
-    <t>4973.51888619</t>
-  </si>
-  <si>
-    <t>5215.76023012</t>
-  </si>
-  <si>
-    <t>5370.57674397</t>
-  </si>
-  <si>
-    <t>5618.71917287</t>
-  </si>
-  <si>
-    <t>5911.42452808</t>
-  </si>
-  <si>
-    <t>6116.97172816</t>
-  </si>
-  <si>
-    <t>6243.82795092</t>
-  </si>
-  <si>
-    <t>6374.39471537</t>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1407</t>
+  </si>
+  <si>
+    <t>1777</t>
+  </si>
+  <si>
+    <t>1763</t>
+  </si>
+  <si>
+    <t>1945</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1855</t>
+  </si>
+  <si>
+    <t>1949</t>
+  </si>
+  <si>
+    <t>1847</t>
+  </si>
+  <si>
+    <t>2058</t>
+  </si>
+  <si>
+    <t>1940</t>
+  </si>
+  <si>
+    <t>2141</t>
+  </si>
+  <si>
+    <t>2289</t>
+  </si>
+  <si>
+    <t>2198</t>
+  </si>
+  <si>
+    <t>2480</t>
+  </si>
+  <si>
+    <t>2533</t>
+  </si>
+  <si>
+    <t>2635</t>
+  </si>
+  <si>
+    <t>2636</t>
+  </si>
+  <si>
+    <t>2558</t>
+  </si>
+  <si>
+    <t>2766</t>
+  </si>
+  <si>
+    <t>2805</t>
+  </si>
+  <si>
+    <t>2912</t>
+  </si>
+  <si>
+    <t>3159</t>
+  </si>
+  <si>
+    <t>3645</t>
+  </si>
+  <si>
+    <t>3540</t>
+  </si>
+  <si>
+    <t>3735</t>
+  </si>
+  <si>
+    <t>3899</t>
+  </si>
+  <si>
+    <t>4095</t>
+  </si>
+  <si>
+    <t>4132</t>
+  </si>
+  <si>
+    <t>4304</t>
+  </si>
+  <si>
+    <t>4481</t>
+  </si>
+  <si>
+    <t>4693</t>
+  </si>
+  <si>
+    <t>4830</t>
+  </si>
+  <si>
+    <t>4713</t>
+  </si>
+  <si>
+    <t>4844</t>
+  </si>
+  <si>
+    <t>4890</t>
+  </si>
+  <si>
+    <t>5039</t>
+  </si>
+  <si>
+    <t>4841</t>
+  </si>
+  <si>
+    <t>5043</t>
+  </si>
+  <si>
+    <t>4940</t>
+  </si>
+  <si>
+    <t>5023</t>
+  </si>
+  <si>
+    <t>5316</t>
+  </si>
+  <si>
+    <t>5446.22817572492</t>
+  </si>
+  <si>
+    <t>5789.95505292201</t>
+  </si>
+  <si>
+    <t>5843.06841037157</t>
+  </si>
+  <si>
+    <t>5968.84479017184</t>
+  </si>
+  <si>
+    <t>6048.74749910215</t>
+  </si>
+  <si>
+    <t>6388.39398445291</t>
+  </si>
+  <si>
+    <t>6680.10341022702</t>
+  </si>
+  <si>
+    <t>6944.66089006728</t>
+  </si>
+  <si>
+    <t>7297.47460420524</t>
+  </si>
+  <si>
+    <t>7548.43784225814</t>
+  </si>
+  <si>
+    <t>7848.09446652532</t>
+  </si>
+  <si>
+    <t>7916.67949611709</t>
+  </si>
+  <si>
+    <t>8281.71526314928</t>
+  </si>
+  <si>
+    <t>8705.08413958555</t>
+  </si>
+  <si>
+    <t>8983.38417225937</t>
+  </si>
+  <si>
+    <t>9420.02315098333</t>
+  </si>
+  <si>
+    <t>9932.93816771539</t>
+  </si>
+  <si>
+    <t>10294.921446404</t>
+  </si>
+  <si>
+    <t>10533.2178252313</t>
+  </si>
+  <si>
+    <t>10721.8113442216</t>
+  </si>
+  <si>
+    <t>10437</t>
+  </si>
+  <si>
+    <t>10739</t>
+  </si>
+  <si>
+    <t>10898</t>
+  </si>
+  <si>
+    <t>11040</t>
+  </si>
+  <si>
+    <t>11060</t>
+  </si>
+  <si>
+    <t>11073</t>
   </si>
   <si>
     <t>Description</t>
@@ -3579,6 +3597,108 @@
         <v>71</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>788.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>788.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>788.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>788.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>788.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>788.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3594,50 +3714,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
